--- a/medicine/Enfance/Drôles_de_petites_bêtes/Drôles_de_petites_bêtes.xlsx
+++ b/medicine/Enfance/Drôles_de_petites_bêtes/Drôles_de_petites_bêtes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr%C3%B4les_de_petites_b%C3%AAtes</t>
+          <t>Drôles_de_petites_bêtes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Drôles de petites bêtes est une collection d'albums de jeunesse créée en 1994 par Antoon Krings. Chacun de ces albums met en scène un animal. Ils sont au nombre d'une soixantaine, et ont fait l’objet d’adaptations audiovisuelles, ainsi que de produits dérivés (peluches, jeux,  livres de recettes, etc.).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr%C3%B4les_de_petites_b%C3%AAtes</t>
+          <t>Drôles_de_petites_bêtes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des albums</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tous les albums ont été publiés en France chez Gallimard Jeunesse.
 Mireille l'abeille (1994)
@@ -599,7 +613,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr%C3%B4les_de_petites_b%C3%AAtes</t>
+          <t>Drôles_de_petites_bêtes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -617,7 +631,9 @@
           <t>Quelques personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mireille l'abeille est très ordonnée et un peu maniaque. Elle vit dans une maisonnette sous un rosier. Elle vivait auparavant à la ruche royale mais s'en est enfuie. Ses grands rêves seraient d'obtenir de la gelée royale et que la reine des abeilles vienne prendre le thé chez elle, pour montrer à la prétentieuse Huguette la guêpe qu'elle vaut mieux qu'elle. Mireille aime aider ses amis, et sa spécialité est le gâteau au miel. En effet, l'abeille, en plus d'être ronde, est très gourmande.
 Belle la coccinelle est, comme son nom l'indique, très jolie et est également très sage et gentille. Dans l'album qui lui est consacré (le deuxième de la série), elle rencontre une sorcière qui transforme la coccinelle en insupportable laideron. Métamorphosée, la coccinelle jouera des mauvais tours aux autres insectes et rencontrera des personnages inédits de la série (Dolly, une grosse araignée et Tony, un crapaud baveux). Elle a les yeux noirs.
@@ -630,7 +646,7 @@
 Léon le Bourdon vit dans une petite maison tapissée de mousse. Il est présenté comme un personnage rondouillard et glouton ce qui lui cause des mésaventures avec Mireille l'Abeille. Il possède également un caractère grognon et égoïste. Léon le Bourdon apparait dès le premier album de la série (en page 12) et c'est le deuxième personnage que l'on rencontre. Le septième album de la collection lui est consacré. Il a les yeux noirs, et est gourmand, a mauvais caractère et est égoïste.
 Patouch la mouche passe ses journées à fabriquer des mixtures qui dégoûtent ses camarades du jardin, comme la confiture de vers de terre ou la tarte à la crotte. Elle fait également pourrir des aliments autour de chez elle. Sa tente dégage un fumet malodorant qui repousse les autres animaux, mais elle est une excellente camarade, toujours prête à aider et à faire partager ses expériences culinaires.
 Huguette la guêpe fait partie des habitants les moins appréciés du jardin. Elle est hautaine, arrogante et se trouve supérieure aux autres. En effet, elle pense toujours que l'apparence est très importante, alors qu'en fait c'est le caractère (et donc la gentillesse). Elle vit dans une splendide demeure, et n'aime recevoir que les « grandes personnes de ce monde », c'est-à-dire la reine des abeilles. Elle profite de sa taille de guêpe pour donner des leçons à la rondelette Mireille l'Abeille.
-Frédéric le moustique est le docteur du jardin. Alors que dans les livres, il apparaît comme un gentil soigneur, qui ne donne que des potions, dans les dessins animés, on ne le voit que donnant des piqûres la plupart du temps inefficaces[1].</t>
+Frédéric le moustique est le docteur du jardin. Alors que dans les livres, il apparaît comme un gentil soigneur, qui ne donne que des potions, dans les dessins animés, on ne le voit que donnant des piqûres la plupart du temps inefficaces.</t>
         </is>
       </c>
     </row>
@@ -640,7 +656,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr%C3%B4les_de_petites_b%C3%AAtes</t>
+          <t>Drôles_de_petites_bêtes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -658,15 +674,54 @@
           <t>Adaptations audiovisuelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La série a été adaptée sous la forme d’une série animée par Alexandre Révérend et Stéphane Bernasconi, chez StudioCanal. La série est diffusée sur France 3 dans Les Minikeums en septembre 2001 puis sur Playhouse Disney, sur France 5 dans Les Zouzous depuis le 7 avril 2004, rediffusée sur France 4 également dans Zouzous et sur Nickelodeon Junior depuis le 7 avril 2012.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série a été adaptée sous la forme d’une série animée par Alexandre Révérend et Stéphane Bernasconi, chez StudioCanal. La série est diffusée sur France 3 dans Les Minikeums en septembre 2001 puis sur Playhouse Disney, sur France 5 dans Les Zouzous depuis le 7 avril 2004, rediffusée sur France 4 également dans Zouzous et sur Nickelodeon Junior depuis le 7 avril 2012.
 Le film Drôles de petites bêtes : Les Quatre Saisons est sorti au cinéma en 2005. Une nouvelle adaptation nommée simplement Drôles de petites bêtes est sortie en 2017.
 En 2019, une deuxième série d’animation, Apollon le grillon et les drôles de petites bêtes, voit le jour. Elle est diffusée sur TiJi.
-Distribution
-Première série (2001)
-Voix françaises
-Adeline Chetail : Camille la chenille / Belle la coccinelle
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Drôles_de_petites_bêtes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr%C3%B4les_de_petites_b%C3%AAtes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Adaptations audiovisuelles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Adeline Chetail : Camille la chenille / Belle la coccinelle
 Éric Chevallier : Siméon le papillon
 Sylvie Jacob : Adèle la sauterelle
 Thierry Kazazian : Narrateur
@@ -678,9 +733,47 @@
 Mireille Mossé : Marie la fourmi
 Charles Pestel : Léon le bourdon
 Clément Révérend : Loulou le pou, Grace la limace et Oscar le cafard
-Magali Rosenzweig : Huguette la guêpe
-Apollon le grillon et les drôles de petites bêtes (2019)
-Emmanuel Curtil : Apollon le grillon
+Magali Rosenzweig : Huguette la guêpe</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Drôles_de_petites_bêtes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dr%C3%B4les_de_petites_b%C3%AAtes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Adaptations audiovisuelles</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Apollon le grillon et les drôles de petites bêtes (2019)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Emmanuel Curtil : Apollon le grillon
 Céline Melloul : Mireille l'abeille
 Adeline Moreau : Huguette la guêpe
 Anne Tilloy : Marguerite
@@ -696,31 +789,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dr%C3%B4les_de_petites_b%C3%AAtes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Drôles_de_petites_bêtes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dr%C3%B4les_de_petites_b%C3%AAtes</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Produits dérivés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Un CD-Rom, Le Pique-nique de Loulou le Pou (Mindscape), permet de jouer avec les personnages des albums : des activités d'éveil pour les 2-4 ans.
 Un jeu de société existe également, Le Roi du Jardin, dans lequel Léon le Bourdon, Camille la Chenille et leurs amis vont élire le Roi du Jardin : un jeu de course et de chance pour 2 à 4 joueurs à partir de 3 ans.
